--- a/Optimierung_SIM.xlsx
+++ b/Optimierung_SIM.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janol\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janol\Desktop\Simulation_Stand230618\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9110" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
-    <sheet name="Algorithmische Optimierung" sheetId="2" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="3" r:id="rId2"/>
+    <sheet name="Algorithmische Optimierung" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
   <si>
     <t>Optimierung Generische Flugzeugsimulation</t>
   </si>
@@ -45,9 +46,6 @@
     <t>Funktion</t>
   </si>
   <si>
-    <t>Rechenzeit-alt</t>
-  </si>
-  <si>
     <t>Problem</t>
   </si>
   <si>
@@ -60,23 +58,143 @@
     <t>relativer Fehler</t>
   </si>
   <si>
-    <t>Trajectory6Dof::logData()</t>
-  </si>
-  <si>
-    <t>44.25%</t>
-  </si>
-  <si>
-    <t>Autopilot::updateAutopilot()</t>
-  </si>
-  <si>
-    <t>26.32%</t>
+    <t>Runs</t>
+  </si>
+  <si>
+    <t>Matlab</t>
+  </si>
+  <si>
+    <t>C++-Debug</t>
+  </si>
+  <si>
+    <t>C++-Release</t>
+  </si>
+  <si>
+    <t>Vergleich Matlab und C++</t>
+  </si>
+  <si>
+    <t>Durchschnitt:</t>
+  </si>
+  <si>
+    <t>Verbesserung:</t>
+  </si>
+  <si>
+    <t>CPU-Zeit</t>
+  </si>
+  <si>
+    <t>std::to_string</t>
+  </si>
+  <si>
+    <t>LinearInterpolation::linearInterpolation2D</t>
+  </si>
+  <si>
+    <t>log6DofData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LogAirframeData </t>
+  </si>
+  <si>
+    <t>LogAeroData</t>
+  </si>
+  <si>
+    <t>LogThrustData</t>
+  </si>
+  <si>
+    <t>Typumwandlung allgemein beim Logging</t>
+  </si>
+  <si>
+    <t>updateAutopilot::updateStateController</t>
+  </si>
+  <si>
+    <t>BlendingParameters</t>
+  </si>
+  <si>
+    <t>Aerodynamic::updateAerodynamic</t>
+  </si>
+  <si>
+    <t>DatcomAerodynamic::updateAerodynamic</t>
+  </si>
+  <si>
+    <t>sehr viele Daten geloggt;teils nicht gebraucht für Auswertung</t>
+  </si>
+  <si>
+    <t>Output reduzieren auf das nötigste</t>
+  </si>
+  <si>
+    <t>Typumwandung von Floating-Zahlen sehr aufwendig</t>
+  </si>
+  <si>
+    <t>eigene Funktionen und Libraries ausprobieren</t>
+  </si>
+  <si>
+    <t>Index suche im Array sehr mühsam</t>
+  </si>
+  <si>
+    <t>Beschleunigen</t>
+  </si>
+  <si>
+    <t>Arrays werden teils mehrfach befüllt, obwohl nur einma benötigt</t>
+  </si>
+  <si>
+    <t>unnötige Funktionsaufrufe</t>
+  </si>
+  <si>
+    <t>Simulationen nach Verbesserung</t>
+  </si>
+  <si>
+    <t>runs</t>
+  </si>
+  <si>
+    <t>Ausgangslage-Debug</t>
+  </si>
+  <si>
+    <t>Logging Debug</t>
+  </si>
+  <si>
+    <t>Autopilot</t>
+  </si>
+  <si>
+    <t>To_string</t>
+  </si>
+  <si>
+    <t>template&lt;typename T&gt;
+std::string to_string(T t)
+{
+    std::ostringstream oss;
+    oss &lt;&lt; t;
+    return oss.str();
+}</t>
+  </si>
+  <si>
+    <t>double value = SOME_VALUE;
+char buffer[100] = {};
+sprintf(buffer, "%f", value);
+std::string s = buffer;</t>
+  </si>
+  <si>
+    <t>string to_string(double x) {
+  ostringstream x_convert;
+  x_convert &lt;&lt; x;
+  return x_convert.str();
+}</t>
+  </si>
+  <si>
+    <t>C++ String Toolkit Library</t>
+  </si>
+  <si>
+    <t>std::string str = boost::lexical_cast&lt;std::string&gt;(dbl);</t>
+  </si>
+  <si>
+    <t>#include &lt;strtk.hpp&gt;
+double pi = M_PI;
+std::string pi_as_string  = strtk::type_to_string&lt;double&gt;( pi );</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +218,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -121,10 +262,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -442,31 +592,31 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.90625" customWidth="1"/>
+    <col min="1" max="1" width="54.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -479,64 +629,422 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>82.743471</v>
+      </c>
+      <c r="C5" s="3">
+        <v>24.736000000000001</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2.1840000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <v>84.212067000000005</v>
+      </c>
+      <c r="C6" s="3">
+        <v>23.821999999999999</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2.4580000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3">
+        <v>82.918908999999999</v>
+      </c>
+      <c r="C7" s="3">
+        <v>23.524000000000001</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2.4159999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3">
+        <v>86.839152999999996</v>
+      </c>
+      <c r="C8" s="3">
+        <v>23.959</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2.0609999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3">
+        <v>82.356559000000004</v>
+      </c>
+      <c r="C9" s="3">
+        <v>23.800999999999998</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1.9550000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="3">
+        <f>AVERAGE(B5:B9)</f>
+        <v>83.814031799999995</v>
+      </c>
+      <c r="C10" s="3">
+        <f>AVERAGE(C5:C9)</f>
+        <v>23.968399999999999</v>
+      </c>
+      <c r="D10" s="3">
+        <f>AVERAGE(D5:D9)</f>
+        <v>2.2147999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <f>ABS((C10-B10)/B10)*100</f>
+        <v>71.402879105978045</v>
+      </c>
+      <c r="D13">
+        <f>ABS((D10-B10)/B10)*100</f>
+        <v>97.357483046174139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.5546875" customWidth="1"/>
+    <col min="4" max="4" width="38.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1">
+        <v>23.97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>50.79</v>
+      </c>
+      <c r="E5">
+        <v>19.394200000000001</v>
+      </c>
+      <c r="F5">
+        <f>ABS((E5-D1)/D1)*100</f>
+        <v>19.089695452649135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>16.190000000000001</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>8.36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>5.36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>22.62</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>6.02</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>15.33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>15.32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>13.18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>19.076000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>19.309000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>19.448</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>19.396000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>19.742000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27">
+        <f>AVERAGE(B22:B26)</f>
+        <v>19.394200000000005</v>
+      </c>
+      <c r="C27" t="e">
+        <f>AVERAGE(C22:C26)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Optimierung_SIM.xlsx
+++ b/Optimierung_SIM.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>Optimierung Generische Flugzeugsimulation</t>
   </si>
@@ -62,12 +62,6 @@
   </si>
   <si>
     <t>Matlab</t>
-  </si>
-  <si>
-    <t>C++-Debug</t>
-  </si>
-  <si>
-    <t>C++-Release</t>
   </si>
   <si>
     <t>Vergleich Matlab und C++</t>
@@ -188,6 +182,30 @@
     <t>#include &lt;strtk.hpp&gt;
 double pi = M_PI;
 std::string pi_as_string  = strtk::type_to_string&lt;double&gt;( pi );</t>
+  </si>
+  <si>
+    <t>C++-Debug mit Compiler Flag</t>
+  </si>
+  <si>
+    <t>C++-Release mit Compiler Flag</t>
+  </si>
+  <si>
+    <t>C++-Debug ohne Compiler Flag</t>
+  </si>
+  <si>
+    <t>Qpar</t>
+  </si>
+  <si>
+    <t>arch</t>
+  </si>
+  <si>
+    <t>Qpar+arch</t>
+  </si>
+  <si>
+    <t>Pragma omp for</t>
+  </si>
+  <si>
+    <t>to_string</t>
   </si>
 </sst>
 </file>
@@ -629,20 +647,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -650,13 +672,16 @@
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -670,7 +695,7 @@
         <v>2.1840000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -684,7 +709,7 @@
         <v>2.4580000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -698,7 +723,7 @@
         <v>2.4159999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -712,7 +737,7 @@
         <v>2.0609999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -726,9 +751,9 @@
         <v>1.9550000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" s="3">
         <f>AVERAGE(B5:B9)</f>
@@ -743,9 +768,9 @@
         <v>2.2147999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <f>ABS((C10-B10)/B10)*100</f>
@@ -764,10 +789,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -778,6 +803,7 @@
     <col min="4" max="4" width="38.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -785,7 +811,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D1">
         <v>23.97</v>
@@ -796,7 +822,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -813,7 +839,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>50.79</v>
@@ -828,49 +854,49 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>16.190000000000001</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>8.36</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8">
         <v>5.36</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>25.5</v>
@@ -878,40 +904,40 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>22.62</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>6.02</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>15.33</v>
@@ -919,7 +945,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>15.32</v>
@@ -927,77 +953,152 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>13.18</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" t="s">
         <v>38</v>
       </c>
-      <c r="B21" t="s">
-        <v>40</v>
-      </c>
       <c r="C21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
       <c r="B22">
         <v>19.076000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" s="3">
+        <v>18.224</v>
+      </c>
+      <c r="F22">
+        <v>18.516999999999999</v>
+      </c>
+      <c r="G22">
+        <v>18.619</v>
+      </c>
+      <c r="H22">
+        <v>18.562999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
       <c r="B23">
         <v>19.309000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>18.088999999999999</v>
+      </c>
+      <c r="F23">
+        <v>19.527000000000001</v>
+      </c>
+      <c r="G23">
+        <v>19.77</v>
+      </c>
+      <c r="H23">
+        <v>19.013999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3</v>
       </c>
       <c r="B24">
         <v>19.448</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>18.3</v>
+      </c>
+      <c r="F24">
+        <v>18.440000000000001</v>
+      </c>
+      <c r="G24">
+        <v>18.295999999999999</v>
+      </c>
+      <c r="H24">
+        <v>18.625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>4</v>
       </c>
       <c r="B25">
         <v>19.396000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <v>19.762</v>
+      </c>
+      <c r="F25">
+        <v>19.843</v>
+      </c>
+      <c r="G25">
+        <v>18.07</v>
+      </c>
+      <c r="H25">
+        <v>19.341999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>5</v>
       </c>
       <c r="B26">
         <v>19.742000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <v>19.54</v>
+      </c>
+      <c r="F26">
+        <v>18.867000000000001</v>
+      </c>
+      <c r="G26">
+        <v>18.286000000000001</v>
+      </c>
+      <c r="H26">
+        <v>18.684000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B27">
         <f>AVERAGE(B22:B26)</f>
@@ -1007,40 +1108,56 @@
         <f>AVERAGE(C22:C26)</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="D27" s="3">
+        <f>AVERAGE(D22:D26)</f>
+        <v>18.782999999999998</v>
+      </c>
+      <c r="F27">
+        <f>AVERAGE(F22:F26)</f>
+        <v>19.038800000000002</v>
+      </c>
+      <c r="G27">
+        <f>AVERAGE(G22:G26)</f>
+        <v>18.6082</v>
+      </c>
+      <c r="H27">
+        <f>AVERAGE(H22:H26)</f>
+        <v>18.845599999999997</v>
+      </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
